--- a/Data/diff_imageFilesMetadata.xlsx
+++ b/Data/diff_imageFilesMetadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mab/Documents/GitHub/bryozoa/magnifica/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15225DF4-D78B-7941-AD7B-8048074A5818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF476AF-E10E-2B40-AC9F-666027D66234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16620" xr2:uid="{FD088022-D8C8-6A49-9912-50436EBB568E}"/>
   </bookViews>
@@ -753,7 +753,7 @@
   <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
